--- a/DataSheet.xlsx
+++ b/DataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanpr\exlipsefolder 2\automationexcercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9241801-EC7E-4DE4-9D6F-FE8A46A92C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32057C05-F37C-4766-9A10-0C33ACDA1CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="2310" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
   <si>
     <t>TestName</t>
   </si>
@@ -88,13 +88,91 @@
   </si>
   <si>
     <t>test04</t>
+  </si>
+  <si>
+    <t>test08</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>Blue Top</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Category: Women &gt; Tops</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Rs. 500</t>
+  </si>
+  <si>
+    <t>test09</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>ProductName2</t>
+  </si>
+  <si>
+    <t>Men Tshirt</t>
+  </si>
+  <si>
+    <t>test13</t>
+  </si>
+  <si>
+    <t>ProductName3</t>
+  </si>
+  <si>
+    <t>ProductName4</t>
+  </si>
+  <si>
+    <t>Sleeveless Dress</t>
+  </si>
+  <si>
+    <t>ProductName1</t>
+  </si>
+  <si>
+    <t>Stylish Dress</t>
+  </si>
+  <si>
+    <t>test14</t>
+  </si>
+  <si>
+    <t>test15</t>
+  </si>
+  <si>
+    <t>Card_Number</t>
+  </si>
+  <si>
+    <t>CVC</t>
+  </si>
+  <si>
+    <t>Expiration_MM</t>
+  </si>
+  <si>
+    <t>Expiration_YYYY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +182,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,13 +212,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -411,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,9 +514,18 @@
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,12 +547,45 @@
       <c r="G1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -467,7 +598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -484,7 +615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -501,7 +632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -524,9 +655,209 @@
         <v>19</v>
       </c>
     </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12">
+        <v>2365987450</v>
+      </c>
+      <c r="P12">
+        <v>625</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>2026</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{19D55C33-B2B9-4086-A3BC-BCE7C7D59288}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>